--- a/lowe/edd/data/SATB$HWS.xlsx
+++ b/lowe/edd/data/SATB$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1472,14 +1472,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH68"/>
+  <dimension ref="A1:JI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1489,12 +1489,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1522,12 +1522,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2342,11 +2342,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3147,10 +3150,13 @@
         <v>221900</v>
       </c>
       <c r="JH9" s="11">
-        <v>220300</v>
+        <v>220700</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>221400</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3951,10 +3957,13 @@
         <v>209200</v>
       </c>
       <c r="JH10" s="11">
-        <v>208200</v>
+        <v>208600</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>211100</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4755,10 +4764,13 @@
         <v>12700</v>
       </c>
       <c r="JH11" s="11">
-        <v>12100</v>
+        <v>12000</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>10300</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5561,8 +5573,11 @@
       <c r="JH12" s="12">
         <v>5.5E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>4.7E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6363,10 +6378,13 @@
         <v>213000</v>
       </c>
       <c r="JH13" s="11">
-        <v>214000</v>
+        <v>214500</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>215600</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7167,10 +7185,13 @@
         <v>30100</v>
       </c>
       <c r="JH14" s="11">
-        <v>29800</v>
+        <v>29700</v>
+      </c>
+      <c r="JI14" s="11">
+        <v>28700</v>
       </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7971,10 +7992,13 @@
         <v>182900</v>
       </c>
       <c r="JH15" s="11">
-        <v>184200</v>
+        <v>184800</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>186900</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8775,10 +8799,13 @@
         <v>151800</v>
       </c>
       <c r="JH16" s="11">
-        <v>151100</v>
+        <v>151700</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>152200</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9581,8 +9608,11 @@
       <c r="JH17" s="11">
         <v>21700</v>
       </c>
+      <c r="JI17" s="11">
+        <v>21800</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10383,10 +10413,13 @@
         <v>9700</v>
       </c>
       <c r="JH18" s="11">
+        <v>9800</v>
+      </c>
+      <c r="JI18" s="11">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11189,8 +11222,11 @@
       <c r="JH19" s="11">
         <v>700</v>
       </c>
+      <c r="JI19" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11991,10 +12027,13 @@
         <v>9000</v>
       </c>
       <c r="JH20" s="11">
+        <v>9100</v>
+      </c>
+      <c r="JI20" s="11">
         <v>9200</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12795,10 +12834,13 @@
         <v>11900</v>
       </c>
       <c r="JH21" s="11">
-        <v>11800</v>
+        <v>11900</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>11900</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13601,8 +13643,11 @@
       <c r="JH22" s="11">
         <v>8500</v>
       </c>
+      <c r="JI22" s="11">
+        <v>8500</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14403,10 +14448,13 @@
         <v>161300</v>
       </c>
       <c r="JH23" s="11">
-        <v>162500</v>
+        <v>163100</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>165100</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15207,10 +15255,13 @@
         <v>130200</v>
       </c>
       <c r="JH24" s="11">
-        <v>129400</v>
+        <v>130000</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>130400</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16011,10 +16062,13 @@
         <v>26300</v>
       </c>
       <c r="JH25" s="11">
-        <v>25900</v>
+        <v>26200</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>26600</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -16817,8 +16871,11 @@
       <c r="JH26" s="11">
         <v>4900</v>
       </c>
+      <c r="JI26" s="11">
+        <v>4900</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -17619,10 +17676,13 @@
         <v>17900</v>
       </c>
       <c r="JH27" s="11">
-        <v>17600</v>
+        <v>17900</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>18300</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -18425,8 +18485,11 @@
       <c r="JH28" s="11">
         <v>5300</v>
       </c>
+      <c r="JI28" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -19227,10 +19290,13 @@
         <v>1700</v>
       </c>
       <c r="JH29" s="11">
+        <v>1700</v>
+      </c>
+      <c r="JI29" s="11">
         <v>1600</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20033,8 +20099,11 @@
       <c r="JH30" s="11">
         <v>3400</v>
       </c>
+      <c r="JI30" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20835,10 +20904,13 @@
         <v>4000</v>
       </c>
       <c r="JH31" s="11">
-        <v>4000</v>
+        <v>4100</v>
+      </c>
+      <c r="JI31" s="11">
+        <v>4100</v>
       </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21641,8 +21713,11 @@
       <c r="JH32" s="11">
         <v>6600</v>
       </c>
+      <c r="JI32" s="11">
+        <v>6500</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22445,8 +22520,11 @@
       <c r="JH33" s="11">
         <v>3700</v>
       </c>
+      <c r="JI33" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23249,8 +23327,11 @@
       <c r="JH34" s="11">
         <v>2900</v>
       </c>
+      <c r="JI34" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -24053,8 +24134,11 @@
       <c r="JH35" s="11">
         <v>35200</v>
       </c>
+      <c r="JI35" s="11">
+        <v>34600</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -24855,10 +24939,13 @@
         <v>13200</v>
       </c>
       <c r="JH36" s="11">
-        <v>12900</v>
+        <v>12700</v>
+      </c>
+      <c r="JI36" s="11">
+        <v>12000</v>
       </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -25659,10 +25746,13 @@
         <v>2800</v>
       </c>
       <c r="JH37" s="11">
-        <v>2700</v>
+        <v>2800</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>2800</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -26463,10 +26553,13 @@
         <v>20200</v>
       </c>
       <c r="JH38" s="11">
-        <v>19600</v>
+        <v>19700</v>
+      </c>
+      <c r="JI38" s="11">
+        <v>19800</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -27267,10 +27360,13 @@
         <v>28000</v>
       </c>
       <c r="JH39" s="11">
-        <v>28100</v>
+        <v>28200</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>28300</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -28071,10 +28167,13 @@
         <v>2400</v>
       </c>
       <c r="JH40" s="11">
-        <v>2400</v>
+        <v>2500</v>
+      </c>
+      <c r="JI40" s="11">
+        <v>2600</v>
       </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -28877,8 +28976,11 @@
       <c r="JH41" s="11">
         <v>25700</v>
       </c>
+      <c r="JI41" s="11">
+        <v>25700</v>
+      </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -29679,10 +29781,13 @@
         <v>23400</v>
       </c>
       <c r="JH42" s="11">
-        <v>23800</v>
+        <v>23900</v>
+      </c>
+      <c r="JI42" s="11">
+        <v>24600</v>
       </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -30485,8 +30590,11 @@
       <c r="JH43" s="11">
         <v>2400</v>
       </c>
+      <c r="JI43" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -31287,10 +31395,13 @@
         <v>20900</v>
       </c>
       <c r="JH44" s="11">
-        <v>21400</v>
+        <v>21500</v>
+      </c>
+      <c r="JI44" s="11">
+        <v>21800</v>
       </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -32091,10 +32202,13 @@
         <v>4000</v>
       </c>
       <c r="JH45" s="11">
-        <v>4200</v>
+        <v>4300</v>
+      </c>
+      <c r="JI45" s="11">
+        <v>4400</v>
       </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -32897,8 +33011,11 @@
       <c r="JH46" s="11">
         <v>17200</v>
       </c>
+      <c r="JI46" s="11">
+        <v>17400</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -33701,8 +33818,11 @@
       <c r="JH47" s="11">
         <v>5800</v>
       </c>
+      <c r="JI47" s="11">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -34505,8 +34625,11 @@
       <c r="JH48" s="11">
         <v>33100</v>
       </c>
+      <c r="JI48" s="11">
+        <v>34700</v>
+      </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -35309,8 +35432,11 @@
       <c r="JH49" s="11">
         <v>4200</v>
       </c>
+      <c r="JI49" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36113,8 +36239,11 @@
       <c r="JH50" s="11">
         <v>28900</v>
       </c>
+      <c r="JI50" s="11">
+        <v>30500</v>
+      </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>52</v>
       </c>
@@ -36917,8 +37046,11 @@
       <c r="JH51" s="11">
         <v>9300</v>
       </c>
+      <c r="JI51" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>53</v>
       </c>
@@ -37721,8 +37853,11 @@
       <c r="JH52" s="11">
         <v>8700</v>
       </c>
+      <c r="JI52" s="11">
+        <v>8100</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>54</v>
       </c>
@@ -38525,8 +38660,11 @@
       <c r="JH53" s="11">
         <v>600</v>
       </c>
+      <c r="JI53" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>55</v>
       </c>
@@ -39329,8 +39467,11 @@
       <c r="JH54" s="11">
         <v>19600</v>
       </c>
+      <c r="JI54" s="11">
+        <v>21800</v>
+      </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>56</v>
       </c>
@@ -40133,8 +40274,11 @@
       <c r="JH55" s="11">
         <v>8600</v>
       </c>
+      <c r="JI55" s="11">
+        <v>10600</v>
+      </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>57</v>
       </c>
@@ -40937,8 +41081,11 @@
       <c r="JH56" s="11">
         <v>11000</v>
       </c>
+      <c r="JI56" s="11">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>58</v>
       </c>
@@ -41741,8 +41888,11 @@
       <c r="JH57" s="11">
         <v>4700</v>
       </c>
+      <c r="JI57" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>59</v>
       </c>
@@ -42545,8 +42695,11 @@
       <c r="JH58" s="11">
         <v>2800</v>
       </c>
+      <c r="JI58" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>60</v>
       </c>
@@ -43349,8 +43502,11 @@
       <c r="JH59" s="11">
         <v>3500</v>
       </c>
+      <c r="JI59" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>143</v>
       </c>
@@ -43363,7 +43519,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>16</v>
       </c>
@@ -43376,7 +43532,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>144</v>
       </c>
@@ -43389,7 +43545,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>145</v>
       </c>

--- a/lowe/edd/data/SATB$HWS.xlsx
+++ b/lowe/edd/data/SATB$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1472,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI68"/>
+  <dimension ref="A1:JJ68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,12 +1489,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1522,12 +1522,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2345,11 +2345,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3153,10 +3156,13 @@
         <v>220700</v>
       </c>
       <c r="JI9" s="11">
-        <v>221400</v>
+        <v>221500</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>220800</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3960,10 +3966,13 @@
         <v>208600</v>
       </c>
       <c r="JI10" s="11">
-        <v>211100</v>
+        <v>211400</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>211000</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4767,10 +4776,13 @@
         <v>12000</v>
       </c>
       <c r="JI11" s="11">
-        <v>10300</v>
+        <v>10100</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>9900</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5574,10 +5586,13 @@
         <v>5.5E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>4.7E-2</v>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6381,10 +6396,13 @@
         <v>214500</v>
       </c>
       <c r="JI13" s="11">
-        <v>215600</v>
+        <v>216100</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>215400</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7188,10 +7206,13 @@
         <v>29700</v>
       </c>
       <c r="JI14" s="11">
-        <v>28700</v>
+        <v>29400</v>
+      </c>
+      <c r="JJ14" s="11">
+        <v>27200</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7995,10 +8016,13 @@
         <v>184800</v>
       </c>
       <c r="JI15" s="11">
-        <v>186900</v>
+        <v>186700</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>188200</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8802,10 +8826,13 @@
         <v>151700</v>
       </c>
       <c r="JI16" s="11">
-        <v>152200</v>
+        <v>152000</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>152500</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9611,8 +9638,11 @@
       <c r="JI17" s="11">
         <v>21800</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>21700</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10418,8 +10448,11 @@
       <c r="JI18" s="11">
         <v>9900</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>9900</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11225,8 +11258,11 @@
       <c r="JI19" s="11">
         <v>700</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12032,8 +12068,11 @@
       <c r="JI20" s="11">
         <v>9200</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>9200</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12839,8 +12878,11 @@
       <c r="JI21" s="11">
         <v>11900</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>11800</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13646,8 +13688,11 @@
       <c r="JI22" s="11">
         <v>8500</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>8500</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14451,10 +14496,13 @@
         <v>163100</v>
       </c>
       <c r="JI23" s="11">
-        <v>165100</v>
+        <v>164900</v>
+      </c>
+      <c r="JJ23" s="11">
+        <v>166500</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15258,10 +15306,13 @@
         <v>130000</v>
       </c>
       <c r="JI24" s="11">
-        <v>130400</v>
+        <v>130200</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>130800</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16067,8 +16118,11 @@
       <c r="JI25" s="11">
         <v>26600</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>26600</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -16874,8 +16928,11 @@
       <c r="JI26" s="11">
         <v>4900</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>4900</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -17681,8 +17738,11 @@
       <c r="JI27" s="11">
         <v>18300</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>18300</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -18488,8 +18548,11 @@
       <c r="JI28" s="11">
         <v>5400</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -19293,10 +19356,13 @@
         <v>1700</v>
       </c>
       <c r="JI29" s="11">
-        <v>1600</v>
+        <v>1700</v>
+      </c>
+      <c r="JJ29" s="11">
+        <v>1700</v>
       </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20102,8 +20168,11 @@
       <c r="JI30" s="11">
         <v>3400</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20909,8 +20978,11 @@
       <c r="JI31" s="11">
         <v>4100</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21716,8 +21788,11 @@
       <c r="JI32" s="11">
         <v>6500</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>6500</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22523,8 +22598,11 @@
       <c r="JI33" s="11">
         <v>3600</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23330,8 +23408,11 @@
       <c r="JI34" s="11">
         <v>2900</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -24135,10 +24216,13 @@
         <v>35200</v>
       </c>
       <c r="JI35" s="11">
-        <v>34600</v>
+        <v>34700</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>35300</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -24944,8 +25028,11 @@
       <c r="JI36" s="11">
         <v>12000</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>12200</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -25751,8 +25838,11 @@
       <c r="JI37" s="11">
         <v>2800</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -26556,10 +26646,13 @@
         <v>19700</v>
       </c>
       <c r="JI38" s="11">
-        <v>19800</v>
+        <v>19900</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>20300</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -27365,8 +27458,11 @@
       <c r="JI39" s="11">
         <v>28300</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>28500</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -28172,8 +28268,11 @@
       <c r="JI40" s="11">
         <v>2600</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -28979,8 +29078,11 @@
       <c r="JI41" s="11">
         <v>25700</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>25800</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -29784,10 +29886,13 @@
         <v>23900</v>
       </c>
       <c r="JI42" s="11">
-        <v>24600</v>
+        <v>24300</v>
+      </c>
+      <c r="JJ42" s="11">
+        <v>24100</v>
       </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -30591,10 +30696,13 @@
         <v>2400</v>
       </c>
       <c r="JI43" s="11">
-        <v>2800</v>
+        <v>2400</v>
+      </c>
+      <c r="JJ43" s="11">
+        <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -31398,10 +31506,13 @@
         <v>21500</v>
       </c>
       <c r="JI44" s="11">
-        <v>21800</v>
+        <v>21900</v>
+      </c>
+      <c r="JJ44" s="11">
+        <v>21600</v>
       </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -32207,8 +32318,11 @@
       <c r="JI45" s="11">
         <v>4400</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -33012,10 +33126,13 @@
         <v>17200</v>
       </c>
       <c r="JI46" s="11">
-        <v>17400</v>
+        <v>17500</v>
+      </c>
+      <c r="JJ46" s="11">
+        <v>17300</v>
       </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -33821,8 +33938,11 @@
       <c r="JI47" s="11">
         <v>5700</v>
       </c>
+      <c r="JJ47" s="11">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -34628,8 +34748,11 @@
       <c r="JI48" s="11">
         <v>34700</v>
       </c>
+      <c r="JJ48" s="11">
+        <v>35700</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -35435,8 +35558,11 @@
       <c r="JI49" s="11">
         <v>4200</v>
       </c>
+      <c r="JJ49" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36242,8 +36368,11 @@
       <c r="JI50" s="11">
         <v>30500</v>
       </c>
+      <c r="JJ50" s="11">
+        <v>31400</v>
+      </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>52</v>
       </c>
@@ -37049,8 +37178,11 @@
       <c r="JI51" s="11">
         <v>8700</v>
       </c>
+      <c r="JJ51" s="11">
+        <v>9300</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>53</v>
       </c>
@@ -37856,8 +37988,11 @@
       <c r="JI52" s="11">
         <v>8100</v>
       </c>
+      <c r="JJ52" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>54</v>
       </c>
@@ -38663,8 +38798,11 @@
       <c r="JI53" s="11">
         <v>600</v>
       </c>
+      <c r="JJ53" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>55</v>
       </c>
@@ -39470,8 +39608,11 @@
       <c r="JI54" s="11">
         <v>21800</v>
       </c>
+      <c r="JJ54" s="11">
+        <v>22100</v>
+      </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>56</v>
       </c>
@@ -40277,8 +40418,11 @@
       <c r="JI55" s="11">
         <v>10600</v>
       </c>
+      <c r="JJ55" s="11">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>57</v>
       </c>
@@ -41084,8 +41228,11 @@
       <c r="JI56" s="11">
         <v>11200</v>
       </c>
+      <c r="JJ56" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>58</v>
       </c>
@@ -41891,8 +42038,11 @@
       <c r="JI57" s="11">
         <v>4700</v>
       </c>
+      <c r="JJ57" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>59</v>
       </c>
@@ -42698,8 +42848,11 @@
       <c r="JI58" s="11">
         <v>2900</v>
       </c>
+      <c r="JJ58" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>60</v>
       </c>
@@ -43505,8 +43658,11 @@
       <c r="JI59" s="11">
         <v>3600</v>
       </c>
+      <c r="JJ59" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>143</v>
       </c>
@@ -43519,7 +43675,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>16</v>
       </c>
@@ -43532,7 +43688,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>144</v>
       </c>
@@ -43545,7 +43701,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>145</v>
       </c>

--- a/lowe/edd/data/SATB$HWS.xlsx
+++ b/lowe/edd/data/SATB$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,13 +338,13 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-721000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Accommodation</t>
+    <t xml:space="preserve">          Accommodation</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1472,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ68"/>
+  <dimension ref="A1:JL68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,12 +1489,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1522,12 +1522,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2348,11 +2348,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3159,10 +3165,16 @@
         <v>221500</v>
       </c>
       <c r="JJ9" s="11">
-        <v>220800</v>
+        <v>221200</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>220600</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>216600</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3969,10 +3981,16 @@
         <v>211400</v>
       </c>
       <c r="JJ10" s="11">
-        <v>211000</v>
+        <v>211400</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>211900</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>208000</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4779,10 +4797,16 @@
         <v>10100</v>
       </c>
       <c r="JJ11" s="11">
-        <v>9900</v>
+        <v>9800</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>8600</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>8600</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5589,10 +5613,16 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="JJ12" s="12">
-        <v>4.4999999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="JK12" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6399,10 +6429,16 @@
         <v>216100</v>
       </c>
       <c r="JJ13" s="11">
-        <v>215400</v>
+        <v>215800</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>215100</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>210100</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7211,8 +7247,14 @@
       <c r="JJ14" s="11">
         <v>27200</v>
       </c>
+      <c r="JK14" s="11">
+        <v>25400</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>19800</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8019,10 +8061,16 @@
         <v>186700</v>
       </c>
       <c r="JJ15" s="11">
-        <v>188200</v>
+        <v>188600</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>189700</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>190300</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8829,10 +8877,16 @@
         <v>152000</v>
       </c>
       <c r="JJ16" s="11">
-        <v>152500</v>
+        <v>152800</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>153600</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>154300</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9641,8 +9695,14 @@
       <c r="JJ17" s="11">
         <v>21700</v>
       </c>
+      <c r="JK17" s="11">
+        <v>21500</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>21600</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10451,8 +10511,14 @@
       <c r="JJ18" s="11">
         <v>9900</v>
       </c>
+      <c r="JK18" s="11">
+        <v>9700</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11261,8 +11327,14 @@
       <c r="JJ19" s="11">
         <v>700</v>
       </c>
+      <c r="JK19" s="11">
+        <v>700</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12071,8 +12143,14 @@
       <c r="JJ20" s="11">
         <v>9200</v>
       </c>
+      <c r="JK20" s="11">
+        <v>9000</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>9300</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12881,8 +12959,14 @@
       <c r="JJ21" s="11">
         <v>11800</v>
       </c>
+      <c r="JK21" s="11">
+        <v>11800</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13691,8 +13775,14 @@
       <c r="JJ22" s="11">
         <v>8500</v>
       </c>
+      <c r="JK22" s="11">
+        <v>8500</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>8500</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14499,10 +14589,16 @@
         <v>164900</v>
       </c>
       <c r="JJ23" s="11">
-        <v>166500</v>
+        <v>166900</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>168200</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>168700</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15309,10 +15405,16 @@
         <v>130200</v>
       </c>
       <c r="JJ24" s="11">
-        <v>130800</v>
+        <v>131100</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>132100</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>132700</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16121,8 +16223,14 @@
       <c r="JJ25" s="11">
         <v>26600</v>
       </c>
+      <c r="JK25" s="11">
+        <v>27400</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>27500</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -16931,8 +17039,14 @@
       <c r="JJ26" s="11">
         <v>4900</v>
       </c>
+      <c r="JK26" s="11">
+        <v>4900</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>4900</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -17741,8 +17855,14 @@
       <c r="JJ27" s="11">
         <v>18300</v>
       </c>
+      <c r="JK27" s="11">
+        <v>19000</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>19000</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -18551,8 +18671,14 @@
       <c r="JJ28" s="11">
         <v>5400</v>
       </c>
+      <c r="JK28" s="11">
+        <v>5500</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -19361,8 +19487,14 @@
       <c r="JJ29" s="11">
         <v>1700</v>
       </c>
+      <c r="JK29" s="11">
+        <v>1900</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20171,8 +20303,14 @@
       <c r="JJ30" s="11">
         <v>3400</v>
       </c>
+      <c r="JK30" s="11">
+        <v>3500</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20981,8 +21119,14 @@
       <c r="JJ31" s="11">
         <v>4100</v>
       </c>
+      <c r="JK31" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21791,8 +21935,14 @@
       <c r="JJ32" s="11">
         <v>6500</v>
       </c>
+      <c r="JK32" s="11">
+        <v>6500</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>6600</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22601,8 +22751,14 @@
       <c r="JJ33" s="11">
         <v>3600</v>
       </c>
+      <c r="JK33" s="11">
+        <v>3600</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>3700</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -23411,8 +23567,14 @@
       <c r="JJ34" s="11">
         <v>2900</v>
       </c>
+      <c r="JK34" s="11">
+        <v>2900</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -24219,10 +24381,16 @@
         <v>34700</v>
       </c>
       <c r="JJ35" s="11">
-        <v>35300</v>
+        <v>35400</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>35500</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>35600</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -25031,8 +25199,14 @@
       <c r="JJ36" s="11">
         <v>12200</v>
       </c>
+      <c r="JK36" s="11">
+        <v>12400</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>12500</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -25841,8 +26015,14 @@
       <c r="JJ37" s="11">
         <v>2800</v>
       </c>
+      <c r="JK37" s="11">
+        <v>2800</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -26649,10 +26829,16 @@
         <v>19900</v>
       </c>
       <c r="JJ38" s="11">
+        <v>20400</v>
+      </c>
+      <c r="JK38" s="11">
         <v>20300</v>
       </c>
+      <c r="JL38" s="11">
+        <v>20300</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -27459,10 +27645,16 @@
         <v>28300</v>
       </c>
       <c r="JJ39" s="11">
-        <v>28500</v>
+        <v>28600</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>28800</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>28700</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -28271,8 +28463,14 @@
       <c r="JJ40" s="11">
         <v>2700</v>
       </c>
+      <c r="JK40" s="11">
+        <v>2800</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>2700</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -29079,10 +29277,16 @@
         <v>25700</v>
       </c>
       <c r="JJ41" s="11">
-        <v>25800</v>
+        <v>25900</v>
+      </c>
+      <c r="JK41" s="11">
+        <v>26000</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>26000</v>
       </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -29891,8 +30095,14 @@
       <c r="JJ42" s="11">
         <v>24100</v>
       </c>
+      <c r="JK42" s="11">
+        <v>24000</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>24300</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -30701,8 +30911,14 @@
       <c r="JJ43" s="11">
         <v>2500</v>
       </c>
+      <c r="JK43" s="11">
+        <v>2500</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -31511,8 +31727,14 @@
       <c r="JJ44" s="11">
         <v>21600</v>
       </c>
+      <c r="JK44" s="11">
+        <v>21500</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>21800</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -32321,8 +32543,14 @@
       <c r="JJ45" s="11">
         <v>4300</v>
       </c>
+      <c r="JK45" s="11">
+        <v>4300</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -33131,8 +33359,14 @@
       <c r="JJ46" s="11">
         <v>17300</v>
       </c>
+      <c r="JK46" s="11">
+        <v>17200</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>17500</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -33939,10 +34173,16 @@
         <v>5700</v>
       </c>
       <c r="JJ47" s="11">
-        <v>5700</v>
+        <v>5800</v>
+      </c>
+      <c r="JK47" s="11">
+        <v>5800</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>5800</v>
       </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -34749,10 +34989,16 @@
         <v>34700</v>
       </c>
       <c r="JJ48" s="11">
-        <v>35700</v>
+        <v>35800</v>
+      </c>
+      <c r="JK48" s="11">
+        <v>36100</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>36000</v>
       </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -35559,10 +35805,16 @@
         <v>4200</v>
       </c>
       <c r="JJ49" s="11">
-        <v>4300</v>
+        <v>4200</v>
+      </c>
+      <c r="JK49" s="11">
+        <v>4200</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>4200</v>
       </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36369,10 +36621,16 @@
         <v>30500</v>
       </c>
       <c r="JJ50" s="11">
-        <v>31400</v>
+        <v>31600</v>
+      </c>
+      <c r="JK50" s="11">
+        <v>31900</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>31800</v>
       </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>52</v>
       </c>
@@ -37179,10 +37437,16 @@
         <v>8700</v>
       </c>
       <c r="JJ51" s="11">
-        <v>9300</v>
+        <v>9500</v>
+      </c>
+      <c r="JK51" s="11">
+        <v>9700</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>9900</v>
       </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>53</v>
       </c>
@@ -37989,10 +38253,16 @@
         <v>8100</v>
       </c>
       <c r="JJ52" s="11">
-        <v>8700</v>
+        <v>8900</v>
+      </c>
+      <c r="JK52" s="11">
+        <v>9100</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>54</v>
       </c>
@@ -38801,8 +39071,14 @@
       <c r="JJ53" s="11">
         <v>600</v>
       </c>
+      <c r="JK53" s="11">
+        <v>600</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>55</v>
       </c>
@@ -39611,8 +39887,14 @@
       <c r="JJ54" s="11">
         <v>22100</v>
       </c>
+      <c r="JK54" s="11">
+        <v>22200</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>21900</v>
+      </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>56</v>
       </c>
@@ -40421,8 +40703,14 @@
       <c r="JJ55" s="11">
         <v>11000</v>
       </c>
+      <c r="JK55" s="11">
+        <v>11100</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>57</v>
       </c>
@@ -41231,8 +41519,14 @@
       <c r="JJ56" s="11">
         <v>11100</v>
       </c>
+      <c r="JK56" s="11">
+        <v>11100</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>10800</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>58</v>
       </c>
@@ -42041,8 +42335,14 @@
       <c r="JJ57" s="11">
         <v>4700</v>
       </c>
+      <c r="JK57" s="11">
+        <v>4700</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>59</v>
       </c>
@@ -42851,8 +43151,14 @@
       <c r="JJ58" s="11">
         <v>2900</v>
       </c>
+      <c r="JK58" s="11">
+        <v>2900</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>60</v>
       </c>
@@ -43661,8 +43967,14 @@
       <c r="JJ59" s="11">
         <v>3500</v>
       </c>
+      <c r="JK59" s="11">
+        <v>3500</v>
+      </c>
+      <c r="JL59" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>143</v>
       </c>
@@ -43675,7 +43987,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>16</v>
       </c>
@@ -43688,7 +44000,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>144</v>
       </c>
@@ -43701,7 +44013,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>145</v>
       </c>
